--- a/biology/Botanique/Carl_Fredrik_Nyman/Carl_Fredrik_Nyman.xlsx
+++ b/biology/Botanique/Carl_Fredrik_Nyman/Carl_Fredrik_Nyman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Fredrik Nyman est un botaniste suédois, né le 31 août 1820 à Stockholm en Suède et mort le 26 avril 1893 à Stockholm.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Conspectus Florae Europaeae en quatre parties : la 1re paraît en septembre 1878, la 2e en octobre 1879, la 3e probablement en juillet 1881, la 4e en octobre 1882, les Addenda en décembre 1885.
  Sylloge Florae Europaeae...Oerebroae, 1885.</t>
@@ -542,35 +556,37 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Genre
 (Meliaceae) Nymania Lindb.
 Espèces
-(Apiaceae) Peucedanum nymanii M.Hiroe[1]
-(Asclepiadaceae) Cryptolepis nymanii (K.Schum.) P.I.Forst.[2]
-(Asclepiadaceae) Phyllanthera nymanii (K.Schum.) Venter[3]
-(Asclepiadaceae) Streptomanes nymanii (K.Schum.)[4]
-(Asteraceae) Sonchus nymanii Tineo &amp; Guss.[5]
-(Brassicaceae) Cardamine nymanii Gand.[6]
-(Cunoniaceae) Ackama nymanii (K.Schum.)[7]
-(Cunoniaceae) Caldcluvia nymanii (K.Schum.) Hoogland[8]
-(Cunoniaceae) Opocunonia nymanii Schltr.[9]
-(Elaeocarpaceae) Anoniodes nymanii (Schltr.)[10]
-(Elaeocarpaceae) Sloanea nymanii K.Schum. &amp; A.C.Sm.[11]
-(Elaeocarpaceae) Sloanea nymanii K.Schum. &amp; A.C.Sm. subsp. morobensis Coode[12]
-(Hymenophyllaceae) Crepidomanes nymanii (Christ) Copel.[13]
-(Hymenophyllaceae) Trichomanes nymanii (Christ; Cop.)[14]
-(Loganiaceae) Couthovia nymanii Gilg &amp; Gilg-Ben.[15]
-(Menispermaceae) Heckelia nymanii (K.Schum.)[16]
-(Podostemaceae) Cladapus nymanii H.A.Möller[17]
-(Podostemaceae) Cladopus nymanii Warm.[18]
-(Rosaceae) Rosa nymanii Almq.[19]
-(Rubiaceae) Amaracarpus nymanii Valeton[20]
-(Ulmaceae) Celtis nymanii (K.Schum.)[21]
-(Vittariaceae) Vittaria nymanii Hieron.[22]
-(Woodsiaceae) Diplazium nymanii (Hieron.)[23]
-(Zingiberaceae) Riedelia nymanii (K.Schum.)[24]</t>
+(Apiaceae) Peucedanum nymanii M.Hiroe
+(Asclepiadaceae) Cryptolepis nymanii (K.Schum.) P.I.Forst.
+(Asclepiadaceae) Phyllanthera nymanii (K.Schum.) Venter
+(Asclepiadaceae) Streptomanes nymanii (K.Schum.)
+(Asteraceae) Sonchus nymanii Tineo &amp; Guss.
+(Brassicaceae) Cardamine nymanii Gand.
+(Cunoniaceae) Ackama nymanii (K.Schum.)
+(Cunoniaceae) Caldcluvia nymanii (K.Schum.) Hoogland
+(Cunoniaceae) Opocunonia nymanii Schltr.
+(Elaeocarpaceae) Anoniodes nymanii (Schltr.)
+(Elaeocarpaceae) Sloanea nymanii K.Schum. &amp; A.C.Sm.
+(Elaeocarpaceae) Sloanea nymanii K.Schum. &amp; A.C.Sm. subsp. morobensis Coode
+(Hymenophyllaceae) Crepidomanes nymanii (Christ) Copel.
+(Hymenophyllaceae) Trichomanes nymanii (Christ; Cop.)
+(Loganiaceae) Couthovia nymanii Gilg &amp; Gilg-Ben.
+(Menispermaceae) Heckelia nymanii (K.Schum.)
+(Podostemaceae) Cladapus nymanii H.A.Möller
+(Podostemaceae) Cladopus nymanii Warm.
+(Rosaceae) Rosa nymanii Almq.
+(Rubiaceae) Amaracarpus nymanii Valeton
+(Ulmaceae) Celtis nymanii (K.Schum.)
+(Vittariaceae) Vittaria nymanii Hieron.
+(Woodsiaceae) Diplazium nymanii (Hieron.)
+(Zingiberaceae) Riedelia nymanii (K.Schum.)</t>
         </is>
       </c>
     </row>
